--- a/docs/unit2/10_details/tension_crack_inputs_KEY.xlsx
+++ b/docs/unit2/10_details/tension_crack_inputs_KEY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jones/My Drive/work - byu/courses/CE 544/exercises/17. important details/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/17. important details/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C464ADFB-D5F5-8E4C-BAFF-6518567ABD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FA2DF4-CBDB-934A-AF0F-51D6344FA3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="780" windowWidth="25640" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35440" yWindow="1980" windowWidth="28200" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>x</t>
   </si>
@@ -163,6 +163,52 @@
   </si>
   <si>
     <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Tension Crack Calculations</t>
+  </si>
+  <si>
+    <t>F:</t>
+  </si>
+  <si>
+    <t>&lt;-- Guess</t>
+  </si>
+  <si>
+    <t>CE 544 - Brigham Young University</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tan</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
@@ -192,43 +238,6 @@
       </rPr>
       <t>:</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>Tension Crack Calculations</t>
-  </si>
-  <si>
-    <t>F:</t>
-  </si>
-  <si>
-    <t>&lt;-- Guess</t>
-  </si>
-  <si>
-    <t>CE 544 - Brigham Young University</t>
   </si>
 </sst>
 </file>
@@ -239,7 +248,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +311,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -683,10 +698,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -700,12 +715,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -867,18 +882,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4">
         <v>1.5</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4">
         <f>B22/B25</f>
@@ -890,45 +905,33 @@
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B27" s="8">
-        <f>DEGREES(ATAN(TAN(B24)/B25))</f>
-        <v>3.3380389906407411</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
+        <f>TAN(B24)/B25</f>
+        <v>5.8325775683949331E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="9">
-        <f>RADIANS(B27)</f>
-        <v>5.8259770946629111E-2</v>
+      <c r="A28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4">
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="4">
-        <v>115</v>
+        <v>15</v>
+      </c>
+      <c r="B29" s="8">
+        <f>(2*B26)/(B28*TAN(PI()/4-B27/2))</f>
+        <v>7.3745764704869652</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="8">
-        <f>(2*B26)/(B29*TAN(RADIANS(45)-B28/2))</f>
-        <v>7.3740889014383804</v>
-      </c>
-      <c r="C30" t="s">
         <v>18</v>
       </c>
     </row>
